--- a/upload/SilkePilon.xls.xlsx
+++ b/upload/SilkePilon.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14-06-2022</t>
+          <t>15-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>

--- a/upload/SilkePilon.xls.xlsx
+++ b/upload/SilkePilon.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15-06-2022</t>
+          <t>20-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -17565,7 +17565,7 @@
       <c r="D1166" t="inlineStr"/>
       <c r="E1166" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -17580,7 +17580,7 @@
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>55%</t>
         </is>
       </c>
     </row>
@@ -17595,7 +17595,7 @@
       <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>

--- a/upload/SilkePilon.xls.xlsx
+++ b/upload/SilkePilon.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -12434,7 +12434,7 @@
       <c r="D825" t="inlineStr"/>
       <c r="E825" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>40%</t>
         </is>
       </c>
     </row>
@@ -12494,7 +12494,7 @@
       <c r="D829" t="inlineStr"/>
       <c r="E829" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>40%</t>
         </is>
       </c>
     </row>
@@ -12509,7 +12509,7 @@
       <c r="D830" t="inlineStr"/>
       <c r="E830" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>40%</t>
         </is>
       </c>
     </row>

--- a/upload/SilkePilon.xls.xlsx
+++ b/upload/SilkePilon.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21-06-2022</t>
+          <t>22-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>

--- a/upload/SilkePilon.xls.xlsx
+++ b/upload/SilkePilon.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22-06-2022</t>
+          <t>24-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
